--- a/SferumNet/Dataset/Sentences.xlsx
+++ b/SferumNet/Dataset/Sentences.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulagin\RiderProjects\SferumBotSender\SferumNet\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636069D4-579A-4A25-B126-416E27EB8E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804EACC-81ED-4800-81D2-BFEABA0AD072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="13372" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="1" r:id="rId1"/>
-    <sheet name="Facts" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
+    <sheet name="Facts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="426">
   <si>
     <t>Message</t>
   </si>
@@ -335,6 +336,975 @@
   </si>
   <si>
     <t>FactSentences</t>
+  </si>
+  <si>
+    <t>🐘 Слоны могут распознавать себя в зеркале, что является признаком самосознания.</t>
+  </si>
+  <si>
+    <t>🦙 Ламы могут плеваться на расстояние до 3 метров, чтобы защитить себя.</t>
+  </si>
+  <si>
+    <t>🌋 Вулкан Килауэа на Гавайях извергается непрерывно с 1983 года.</t>
+  </si>
+  <si>
+    <t>🌍 Африка — единственный континент, на котором расположены страны из всех четырёх полушарий Земли.</t>
+  </si>
+  <si>
+    <t>🐢 Морские черепахи могут жить до 100 лет и более.</t>
+  </si>
+  <si>
+    <t>🧬 Человеческий ДНК на 99% совпадает с ДНК шимпанзе.</t>
+  </si>
+  <si>
+    <t>🌊 Тихий океан занимает третью часть поверхности Земли.</t>
+  </si>
+  <si>
+    <t>🐝 Пчелы общаются друг с другом через "танцевальный язык".</t>
+  </si>
+  <si>
+    <t>🐨 Коалы имеют уникальные отпечатки пальцев, как и люди.</t>
+  </si>
+  <si>
+    <t>🌑 На Луне нет атмосферы, поэтому звуки не распространяются.</t>
+  </si>
+  <si>
+    <t>🌲 В мире насчитывается более 60 000 видов деревьев.</t>
+  </si>
+  <si>
+    <t>🦋 Бабочки могут видеть ультрафиолетовый свет, который недоступен для человеческого глаза.</t>
+  </si>
+  <si>
+    <t>🐊 Крокодилы могут жить без еды до двух лет.</t>
+  </si>
+  <si>
+    <t>🌪️ Самый сильный торнадо зарегистрирован в США и имел скорость ветра 484 км/ч.</t>
+  </si>
+  <si>
+    <t>🦔 У ежей более 5 000 иголок на теле.</t>
+  </si>
+  <si>
+    <t>🚀 В 1969 году Нил Армстронг стал первым человеком, ступившим на Луну.</t>
+  </si>
+  <si>
+    <t>🐦 Колибри — единственные птицы, которые могут летать назад.</t>
+  </si>
+  <si>
+    <t>🏔️ Эверест, самая высокая гора на Земле, продолжает расти на несколько миллиметров каждый год.</t>
+  </si>
+  <si>
+    <t>🦅 Орлы могут видеть в четыре раза лучше, чем люди.</t>
+  </si>
+  <si>
+    <t>🦙 Ламы были одомашнены более 5 000 лет назад в Южной Америке.</t>
+  </si>
+  <si>
+    <t>🌌 В Млечном Пути более 100 миллиардов звезд.</t>
+  </si>
+  <si>
+    <t>🐌 Улитки могут спать до трех лет подряд.</t>
+  </si>
+  <si>
+    <t>🎨 Винсент Ван Гог продал только одну картину при жизни.</t>
+  </si>
+  <si>
+    <t>🌟 В центре нашей галактики находится черная дыра массой около 4 миллионов солнечных масс.</t>
+  </si>
+  <si>
+    <t>🌍 В Австралии находится самое большое живое сооружение на Земле — Большой Барьерный риф.</t>
+  </si>
+  <si>
+    <t>🦊 Лисы могут "играть" в прятки друг с другом.</t>
+  </si>
+  <si>
+    <t>🦈 Самая большая акула, мегалодон, могла достигать длины до 18 метров.</t>
+  </si>
+  <si>
+    <t>🦜 Попугаи могут имитировать человеческую речь и звуки других животных.</t>
+  </si>
+  <si>
+    <t>🌠 Самая длинная комета имеет хвост длиной более 1 миллиона километров.</t>
+  </si>
+  <si>
+    <t>🐋 Синий кит — самое большое животное, когда-либо жившее на Земле, весит до 200 тонн.</t>
+  </si>
+  <si>
+    <t>🌿 Бамбук может вырастать на 90 сантиметров за один день.</t>
+  </si>
+  <si>
+    <t>🦘 Кенгуру не могут двигаться назад.</t>
+  </si>
+  <si>
+    <t>🐍 Змеи могут "видеть" тепловое излучение от своих жертв.</t>
+  </si>
+  <si>
+    <t>🌾 В одном грамме почвы может быть до 1 миллиарда бактерий.</t>
+  </si>
+  <si>
+    <t>🐾 Кошки могут "говорить" с людьми, используя более 100 различных звуков.</t>
+  </si>
+  <si>
+    <t>🧠 Человеческий мозг может обрабатывать информацию быстрее, чем любой компьютер.</t>
+  </si>
+  <si>
+    <t>🌪️ В Антарктиде зарегистрирован самый сильный ветер на Земле — 327 км/ч.</t>
+  </si>
+  <si>
+    <t>🐴 Лошади могут спать стоя благодаря особым суставам.</t>
+  </si>
+  <si>
+    <t>🐢 Морские черепахи возвращаются на тот же пляж, где они вылупились, чтобы откладывать свои яйца.</t>
+  </si>
+  <si>
+    <t>🌌 Космос пахнет горелым стейком и сваренными металлами, по словам астронавтов.</t>
+  </si>
+  <si>
+    <t>🐦 Пингвины могут пить соленую воду благодаря специальным железам, которые удаляют соль из их крови.</t>
+  </si>
+  <si>
+    <t>🦓 Полосы на зебре уникальны для каждого животного, как отпечатки пальцев у человека.</t>
+  </si>
+  <si>
+    <t>🌿 Некоторые виды бамбука цветут один раз в 120 лет.</t>
+  </si>
+  <si>
+    <t>🦄 Единороги считаются национальным животным Шотландии.</t>
+  </si>
+  <si>
+    <t>🌋 Вулканы на Энцеладе, луне Сатурна, извергают ледяную воду вместо лавы.</t>
+  </si>
+  <si>
+    <t>🐧 Императорские пингвины могут нырять на глубину до 500 метров.</t>
+  </si>
+  <si>
+    <t>🚀 В космосе нет звука, потому что там нет атмосферы.</t>
+  </si>
+  <si>
+    <t>🦎 Гекконы могут бегать по стеклу благодаря микроскопическим волоскам на лапках.</t>
+  </si>
+  <si>
+    <t>🌸 Вишневые деревья в Японии цветут всего несколько недель в году.</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть каждое ваше начинание сегодня будет успешным! 🌞</t>
+  </si>
+  <si>
+    <t>Привет! Желаю вам день, полный волшебных моментов и вдохновения! ✨</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Пусть ваш день пройдет гладко, словно солнечный свет! ☀️</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть этот день принесет вам неожиданные приятные сюрпризы! 🎁</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам сил и энергии для новых свершений! ⚡</t>
+  </si>
+  <si>
+    <t>Привет! Пусть ваше сердце сегодня наполнится радостью и теплом! 💖</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам найти время для маленьких радостей! 🌸</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть сегодняшний день будет лучшим из всех! 🌟</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть в вашем дне будет место для добрых дел! 🕊️</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам море позитивных эмоций и улыбок! 🌊</t>
+  </si>
+  <si>
+    <t>Привет! Пусть каждый момент сегодняшнего дня будет приятным! 😊</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам успехов и счастья во всех начинаниях! 🍀</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть ваш день будет наполнен радостью и светом! 🌅</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть ваш труд сегодня приносит только радость и удовлетворение! 🛠️</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам ясных мыслей и мудрых решений! 🧠</t>
+  </si>
+  <si>
+    <t>Привет! Пусть каждый ваш шаг сегодня будет уверенным и легким! 🚶‍♂️</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам гармонии в душе и во всем, что вас окружает! 🌿</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть каждый луч солнца сегодня принесет вам удачу! 🌞</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть ваш день будет полон креативных идей и решений! 🎨</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам ясного неба и светлого настроения! ☀️</t>
+  </si>
+  <si>
+    <t>Привет! Пусть ваша душа сегодня поет от счастья! 🎶</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам энергии и вдохновения на весь день! ⚡</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть этот день будет началом чего-то удивительного! 🌟</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть все ваши мечты сегодня становятся реальностью! ✨</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам спокойствия и умиротворения! 🕊️</t>
+  </si>
+  <si>
+    <t>Привет! Пусть ваш день будет наполнен теплом и добротой! 💖</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам интересных встреч и плодотворных бесед! 🗣️</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть ваш день будет ярким и незабываемым! 🌈</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть каждый час сегодня будет наполнен радостью и светом! 🌞</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам удачи и успехов во всех делах! 🍀</t>
+  </si>
+  <si>
+    <t>Привет! Пусть ваша улыбка сегодня озарит всех вокруг! 😊</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам гармонии и баланса в каждой минуте! ⚖️</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть ваш день будет полон новых открытий и впечатлений! 🌟</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть каждое ваше решение сегодня будет правильным! ✅</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам счастья и успехов в каждом начинании! 🌸</t>
+  </si>
+  <si>
+    <t>Привет! Пусть ваш день будет полон добрых поступков и радости! 🕊️</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам вдохновения и творческих успехов! 🎨</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть каждый момент сегодня будет особенным и запоминающимся! 🌞</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть ваш день пройдет под знаком удачи и успеха! 🍀</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам энергии и позитивного настроя на весь день! ⚡</t>
+  </si>
+  <si>
+    <t>Привет! Пусть ваш день будет наполнен радостными сюрпризами! 🎁</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам ясных мыслей и четких целей! 🧠</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть каждый ваш шаг сегодня будет легким и уверенным! 🚶‍♂️</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть ваш день будет полон гармонии и вдохновения! 🌿</t>
+  </si>
+  <si>
+    <t>Добрый день! Желаю вам море положительных эмоций и улыбок! 🌊</t>
+  </si>
+  <si>
+    <t>Привет! Пусть каждый миг сегодня приносит вам радость и тепло! 😊</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Желаю вам успехов и счастья во всем, что вы делаете! 🍀</t>
+  </si>
+  <si>
+    <t>Доброе утро! Пусть ваш день будет наполнен светом и радостью! 🌅</t>
+  </si>
+  <si>
+    <t>Приветствую! Пусть ваш труд сегодня приносит только удовлетворение и радость! 🛠️</t>
+  </si>
+  <si>
+    <t>Доброе утро, дорогие коллеги! 🌞 Пусть этот день принесет вам много радости и успехов, наполнит энергией и уверенностью в своих силах!</t>
+  </si>
+  <si>
+    <t>Утречка, коллеги! 🌅 Пожелаю вам яркого настроения, вдохновения на творчество и легкости в выполнении всех задач сегодня!</t>
+  </si>
+  <si>
+    <t>Доброго и продуктивного утра, друзья! 🌼 Пусть каждый момент этого дня будет наполнен радостью и новыми возможностями для роста!</t>
+  </si>
+  <si>
+    <t>Солнечное утро вам, уважаемые коллеги! 🌞 Начните день с улыбки и позитивного настроения, чтобы все задачи шли на ура!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные люди! 🌞 Пусть этот день станет для вас началом чего-то прекрасного и вдохновляющего!</t>
+  </si>
+  <si>
+    <t>Утро доброе, коллеги! 🌞 Начните день с уверенностью в своих силах и верой в успех каждого вашего дела!</t>
+  </si>
+  <si>
+    <t>Доброе утро, дорогие друзья! 🌞 Пусть этот день принесет вам много радости, улыбок и успешных решений!</t>
+  </si>
+  <si>
+    <t>С добрым утром! 🌞 Пусть сегодняшний день будет наполнен только приятными событиями и положительными эмоциями!</t>
+  </si>
+  <si>
+    <t>Радостного утра, коллеги! 🌞 Начните этот день с чашечки утреннего кофе и мыслей о том, что все возможно!</t>
+  </si>
+  <si>
+    <t>Доброго и теплого утра вам! 🌞 Пусть этот день станет для вас началом чего-то большого и замечательного!</t>
+  </si>
+  <si>
+    <t>Утречка доброе, друзья! 🌞 Не забудьте улыбнуться и начать день с позитивного настроения!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные люди! 🌞 Пусть сегодняшний день принесет вам много радости и удовлетворения от достижений!</t>
+  </si>
+  <si>
+    <t>Солнечного утра вам, коллеги! 🌞 Пусть с каждым часом этот день приближает вас к вашим целям!</t>
+  </si>
+  <si>
+    <t>Доброго и яркого утра! 🌞 Пусть этот день подарит вам много вдохновения и новых идей для реализации!</t>
+  </si>
+  <si>
+    <t>Утро доброе, друзья! 🌞 Начните день с уверенностью в своих силах и верой в свой успех!</t>
+  </si>
+  <si>
+    <t>Доброе утро, уважаемые коллеги! 🌞 Пусть сегодняшний день будет наполнен позитивными эмоциями и вдохновением на достижение новых вершин!</t>
+  </si>
+  <si>
+    <t>Радостного утра, друзья! 🌞 Начните день с улыбки и положительного настроения, чтобы все задачи выполнялись легко и быстро!</t>
+  </si>
+  <si>
+    <t>С добрым утром, замечательные люди! 🌞 Пусть этот день принесет вам много радости и удовлетворения от достигнутых результатов!</t>
+  </si>
+  <si>
+    <t>Доброе утро, дорогие коллеги! 🌞 Пусть сегодняшний день станет для вас началом новых побед и достижений!</t>
+  </si>
+  <si>
+    <t>Утро доброе, коллеги! 🌞 Начните день с чашечки ароматного кофе и положительных мыслей о том, что все возможно!</t>
+  </si>
+  <si>
+    <t>Доброго и радостного утра вам! 🌞 Пусть этот день будет наполнен только приятными событиями и радостными встречами!</t>
+  </si>
+  <si>
+    <t>Радужного утра вам, друзья! 🌞 Начните день с улыбки и положительного настроения, чтобы каждая минута была насыщенной и яркой!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные люди! 🌞 Пусть этот день принесет вам много счастья и новых возможностей для самореализации!</t>
+  </si>
+  <si>
+    <t>Солнечного и утреннего добра вам, коллеги! 🌞 Пусть с каждым новым днем вы становитесь ближе к своим мечтам и целям!</t>
+  </si>
+  <si>
+    <t>Доброго утра, друзья! 🌞 Начните этот день с уверенностью в своих силах и верой в свой успех!</t>
+  </si>
+  <si>
+    <t>Доброе и солнечное утро, дорогие коллеги! 🌞 Пусть этот день будет полон возможностей для роста и новых достижений! Не забывайте улыбаться и вдохновлять окружающих своей энергией!</t>
+  </si>
+  <si>
+    <t>Утро доброе, замечательные люди! 🌅 Пусть сегодняшний день приносит вам много улыбок, успехов и положительных изменений! Начните его с чашечки ароматного кофе и ярких планов на будущее!</t>
+  </si>
+  <si>
+    <t>Доброго утра, друзья! 🌞 Пусть сегодняшний день станет началом чего-то нового и удивительного! Не забывайте радоваться каждому моменту и стремиться к своим мечтам!</t>
+  </si>
+  <si>
+    <t>Радостного и солнечного утра вам, коллеги! 🌞 Пусть этот день наполнится приятными сюрпризами и радостными встречами! Не упускайте возможность делать мир ярче вокруг себя!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные друзья! 🌞 Пусть каждый ваш шаг сегодня будет направлен к достижению грандиозных целей и радостных успехов! Не забывайте радоваться мелочам и быть добрыми друг к другу!</t>
+  </si>
+  <si>
+    <t>Солнечного и доброго утра, уважаемые коллеги! 🌞 Пусть сегодняшний день станет началом больших побед и вдохновения на творчество! Не забывайте делиться своей энергией с окружающими!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные люди! 🌞 Пусть этот день будет полон радости, смеха и теплых слов! Начните его с чашечки любимого напитка и планов на счастливое будущее!</t>
+  </si>
+  <si>
+    <t>Утречка доброе, друзья! 🌞 Не забывайте, что каждое новое утро — это возможность начать все с чистого листа и сделать мир ярче вместе! Начните день с улыбки и позитивного настроения!</t>
+  </si>
+  <si>
+    <t>Доброго и вдохновенного утра вам, коллеги! 🌞 Пусть этот день приносит вам много новых идей и возможностей для творчества! Не забывайте мечтать и верить в свои силы!</t>
+  </si>
+  <si>
+    <t>Радостного и утреннего добра вам, дорогие друзья! 🌞 Пусть каждый момент этого дня будет наполнен положительными эмоциями и приятными впечатлениями! Начните его с улыбки и добрых дел!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные коллеги! 🌞 Пусть этот день будет началом больших побед и новых достижений! Не забывайте быть собой и делать мир лучше вместе!</t>
+  </si>
+  <si>
+    <t>Солнечного и радостного утра вам! 🌞 Пусть сегодняшний день принесет вам много светлых моментов и радостных событий! Не забывайте радоваться жизни и ценить каждый день!</t>
+  </si>
+  <si>
+    <t>Доброго утра, друзья! 🌞 Пусть этот день станет для вас началом новых открытий и возможностей для личностного роста! Не забывайте стремиться к своим целям и мечтам!</t>
+  </si>
+  <si>
+    <t>Радужного и доброго утра вам, коллеги! 🌞 Пусть этот день принесет вам массу вдохновения и энергии для осуществления самых смелых проектов! Не забывайте верить в свои силы и бороться за свои мечты!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные люди! 🌞 Пусть этот день будет полон счастливых моментов и успешных решений! Не забывайте делиться своей улыбкой с окружающими!</t>
+  </si>
+  <si>
+    <t>Утречка доброе, друзья! 🌞 Начните этот день с уверенности в себе и своих силах! Пусть каждый шаг вас приближает к вашим целям и мечтам!</t>
+  </si>
+  <si>
+    <t>Доброго и яркого утра вам, коллеги! 🌞 Пусть сегодняшний день будет наполнен новыми возможностями и творческим вдохновением! Не упускайте шанс делать мир лучше каждый день!</t>
+  </si>
+  <si>
+    <t>Солнечного утра вам, дорогие друзья! 🌞 Пусть этот день станет для вас началом интересных проектов и приятных открытий! Не забывайте ценить каждый момент жизни и быть счастливыми!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные коллеги! 🌞 Пусть сегодняшний день приносит вам много радостных сюрпризов и положительных эмоций! Начните его с улыбки и благодарности за новый день!</t>
+  </si>
+  <si>
+    <t>Радостного и утреннего добра вам, друзья! 🌞 Пусть этот день будет наполнен успехами и замечательными встречами! Не упустите возможность сделать что-то доброе для окружающих!</t>
+  </si>
+  <si>
+    <t>Доброго и вдохновенного утра вам, коллеги! 🌞 Пусть сегодняшний день станет началом ваших лучших достижений и творческих проектов! Не забывайте верить в себя и свои силы!</t>
+  </si>
+  <si>
+    <t>Радужного и доброго утра вам! 🌞 Пусть этот день принесет вам много радостных моментов и положительных эмоций! Не забывайте ценить каждый миг своей жизни и делиться своим счастьем с другими!</t>
+  </si>
+  <si>
+    <t>Доброго утра, замечательные люди! 🌞 Пусть этот день станет для вас началом новых возможностей и достижений! Не забывайте быть открытыми к новым идеям и вдохновению!</t>
+  </si>
+  <si>
+    <t>Утречка доброе, друзья! 🌞 Начните этот день с улыбки и позитивного настроения! Пусть каждый ваш шаг направлен к воплощению ваших самых смелых мечтаний и целей!</t>
+  </si>
+  <si>
+    <t>Доброго и радостного утра вам, коллеги! 🌞 Пусть этот день принесет вам много положительных эмоций и радостных моментов! Не забывайте стремиться к новым вершинам и быть счастливыми каждый день!</t>
+  </si>
+  <si>
+    <t>Солнечного и радостного утра вам, дорогие друзья! 🌞 Пусть сегодняшний день будет наполнен только приятными сюрпризами и положительными событиями! Не упускайте возможность делать день лучше для себя и окружающих!</t>
+  </si>
+  <si>
+    <t>Доброе утро, замечательные коллеги! 🌞 Пусть сегодняшний день станет началом новых возможностей и успехов в ваших делах! Не забывайте верить в свои силы и достигать поставленных целей!</t>
+  </si>
+  <si>
+    <t>Радостного и утреннего добра вам, друзья! 🌞 Пусть этот день будет наполнен радостью и вдохновением на новые начинания! Не забывайте радоваться каждому дню и ценить дружбу!</t>
+  </si>
+  <si>
+    <t>Доброго и вдохновенного утра вам, коллеги! 🌞 Пусть сегодняшний день принесет вам много светлых идей и возможностей для реализации своих талантов! Не упускайте шанс делать мир лучше своими усилиями!</t>
+  </si>
+  <si>
+    <t>Радужного и доброго утра вам! 🌞 Пусть этот день станет началом чего-то прекрасного и необычного! Не забывайте делиться своей улыбкой и позитивом с окружающими!</t>
+  </si>
+  <si>
+    <t>Доброго утра, замечательные люди! 🌞 Пусть этот день станет началом новых достижений и возможностей для роста! Не забывайте верить в себя и свои силы!</t>
+  </si>
+  <si>
+    <t>Доброе, светлое и радостное утро, мои дорогие и восхитительные коллеги! 🌞 Пусть этот день принесет в ваши сердца огромную порцию уверенности, энергии и мотивации для творчества и достижения новых высот! Не забывайте улыбаться и делиться своим светом с миром вокруг!</t>
+  </si>
+  <si>
+    <t>Утро доброе и благословенное, мои замечательные и великолепные друзья! 🌞 Пусть с каждым новым взглядом на этот день в вас пробуждается бесконечный потенциал для достижения самых смелых целей и мечтаний! Начните его с чашечки теплого кофе и добрых слов к себе и окружающим!</t>
+  </si>
+  <si>
+    <t>Доброе утро, мои восхитительные и драгоценные друзья! 🌞 Пусть этот утренний момент станет отправной точкой для вашего великолепного путешествия по дороге к успеху и благополучию! Не забывайте наслаждаться каждым вдохом этого нового дня и делать его ярким и запоминающимся!</t>
+  </si>
+  <si>
+    <t>Радостное, солнечное и радужное утро, мои удивительные и невероятные коллеги! 🌞 Пусть этот день приносит вам неиссякаемый запас вдохновения и радости, чтобы вы смогли с легкостью преодолевать все препятствия на пути к своим самым заветным мечтам! Начните его с улыбки и любви к себе и окружающим!</t>
+  </si>
+  <si>
+    <t>Доброе, восхитительное и сказочное утро, мои дорогие и неимоверно важные друзья! 🌞 Пусть этот день будет наполнен миллионами возможностей для вашего личностного и профессионального роста, а каждая минута его пребывания в вашей жизни будет принесением счастья и радости! Не забывайте быть сильными и уверенными в своих силах!</t>
+  </si>
+  <si>
+    <t>Утро доброе и полное невероятной энергии, мои восхитительные и великолепные коллеги! 🌞 Пусть этот день станет началом вашего великолепного пути к успеху, исполненного множеством радостных моментов и приятных встреч! Не забывайте делать шаги к своим самым заветным целям и мечтам с уверенностью и решимостью!</t>
+  </si>
+  <si>
+    <t>Доброе, солнечное и радостное утро, мои дорогие и невероятные друзья! 🌞 Пусть этот день приносит в ваши сердца бесконечное количество улыбок, счастливых моментов и невероятно приятных впечатлений! Не забывайте ценить каждый миг этого великолепного утра и делать его незабываемым для себя и всех вокруг!</t>
+  </si>
+  <si>
+    <t>Радужное, волшебное и вдохновляющее утро, мои дорогие и неописуемо важные коллеги! 🌞 Пусть этот день станет началом вашего невероятного пути к достижению всех ваших заветных мечтаний и целей, а каждый шаг на этом пути будет наполнен великим вдохновением и неизбывной верой в собственные силы! Не забывайте улыбаться и делиться своим светом с окружающим миром!</t>
+  </si>
+  <si>
+    <t>Доброе, великолепное и невероятно счастливое утро, мои дорогие и невероятно дорогие друзья! 🌞 Пусть этот день станет отправной точкой для вашего великолепного пути к благополучию, гармонии и успеху во всех жизненных сферах! Не забывайте ценить каждый миг этого великолепного утра и делать его неимоверно ярким и запоминающимся для себя и всех ваших близких!</t>
+  </si>
+  <si>
+    <t>Утро доброе и просто невероятно позитивное, мои восхитительные и неимоверно талантливые коллеги! 🌞 Пусть этот день будет наполнен самыми смелыми и грандиозными идеями, неистощимой энергией и вдохновением, чтобы вы смогли преодолеть все трудности на пути к своим заветным мечтам и целям! Начните его с улыбки и готовности к новым свершениям!</t>
+  </si>
+  <si>
+    <t>Доброе утро, мои восхитительные и необыкновенно важные друзья! 🌞 Пусть этот утренний момент будет наполнен великолепными впечатлениями, морем энергии и вдохновения для реализации всех ваших самых смелых и амбициозных проектов! Не забывайте улыбаться и радоваться жизни каждый день!</t>
+  </si>
+  <si>
+    <t>Радостное, солнечное и бесконечно волшебное утро, мои восхитительные и невероятно дорогие коллеги! 🌞 Пусть этот день станет началом вашего великолепного и невероятно удачного пути к новым достижениям, замечательным успехам и радостным победам! Не забывайте делиться своим светом с окружающим миром и делать его лучше каждый день!</t>
+  </si>
+  <si>
+    <t>Доброе, радостное и волшебное утро, мои удивительные и неимоверно важные друзья! 🌞 Пусть этот день будет наполнен великолепными возможностями для вашего развития и самореализации, неиссякаемым источником энергии и вдохновения для творчества и достижения ваших мечт! Начните его с улыбки и положительных мыслей о будущем!</t>
+  </si>
+  <si>
+    <t>Утро доброе и просто невероятно вдохновляющее, мои удивительные и невероятно талантливые коллеги! 🌞 Пусть этот день станет отправной точкой для ваших самых смелых и амбициозных планов, наполненных великолепием и безграничными возможностями для воплощения ваших заветных мечт! Не забывайте стремиться к новым вершинам и достижениям каждый день!</t>
+  </si>
+  <si>
+    <t>Доброе утро, мои восхитительные и неимоверно дорогие друзья! 🌞 Пусть этот утренний момент станет отправной точкой для вашего великолепного пути к самореализации, благополучию и успеху во всех начинаниях! Не забывайте делать каждый день незабываемым и полным радости и удовольствия!</t>
+  </si>
+  <si>
+    <t>Радужное, волшебное и невероятно радостное утро, мои дорогие и восхитительные коллеги! 🌞 Пусть этот день станет началом новых свершений, великолепных моментов и неограниченных возможностей для реализации ваших самых заветных мечтаний и целей! Не забывайте улыбаться и делиться своим светом с окружающим миром!</t>
+  </si>
+  <si>
+    <t>Доброе, восхитительное и великолепное утро, мои неимоверно дорогие и неописуемо важные друзья! 🌞 Пусть этот день станет отправной точкой для вашего великолепного пути к успеху, благополучию и гармонии в жизни! Не забывайте ценить каждый миг этого удивительного утра и делать его ярким и незабываемым!</t>
+  </si>
+  <si>
+    <t>Утро доброе и просто невероятно волшебное, мои дорогие и восхитительные коллеги! 🌞 Пусть этот день будет наполнен самыми светлыми и радостными моментами, вдохновением для творчества и реализации всех ваших заветных мечтаний и амбиций! Не забывайте улыбаться и делать мир лучше своими усилиями!</t>
+  </si>
+  <si>
+    <t>Доброе утро, мои неимоверно дорогие и удивительные друзья! 🌞 Пусть этот утренний момент станет началом вашего великолепного и невероятно успешного дня, полного радости, вдохновения и счастья! Не забывайте делать каждый миг своей жизни ярким и запоминающимся!</t>
+  </si>
+  <si>
+    <t>Радостное, веселое и волшебное утро, мои восхитительные и неимоверно драгоценные коллеги! 🌞 Пусть этот день станет началом вашего великолепного пути к успеху, благополучию и гармонии в жизни! Не забывайте делиться своим светом с окружающим миром и делать его лучше каждый день!</t>
+  </si>
+  <si>
+    <t>Доброе, радостное и удивительно вдохновляющее утро, мои восхитительные и неописуемо важные друзья! 🌞 Пусть этот день станет отправной точкой для вашего великолепного пути к самореализации, благополучию и успеху во всех начинаниях! Не забывайте ценить каждый миг этого удивительного утра и делать его ярким и незабываемым!</t>
+  </si>
+  <si>
+    <t>Утро доброе и просто невероятно радостное, мои неимоверно дорогие и неописуемо важные коллеги! 🌞 Пусть этот день будет наполнен великолепными впечатлениями, морем энергии и вдохновения для реализации всех ваших самых смелых и амбициозных проектов! Не забывайте стремиться к новым вершинам и достижениям каждый день!</t>
+  </si>
+  <si>
+    <t>Доброе утро, мои восхитительные и неимоверно драгоценные друзья! 🌞 Пусть этот утренний момент станет началом вашего великолепного и невероятно успешного дня, полного радости, вдохновения и счастья! Не забывайте делать каждый миг своей жизни ярким и запоминающимся!</t>
+  </si>
+  <si>
+    <t>Антарктида - единственный континент, на котором не проживает ни одного человека. ❄️</t>
+  </si>
+  <si>
+    <t>Пчелы могут распознавать лица людей. 🐝</t>
+  </si>
+  <si>
+    <t>В среднем, за свою жизнь человек проводит примерно 6 месяцев на уход за своими волосами. 💇‍♂️</t>
+  </si>
+  <si>
+    <t>Самая высокая скорость ветра, зарегистрированная на Земле, составила 484 км/ч. 🌪️</t>
+  </si>
+  <si>
+    <t>У одного из основателей Apple, Стива Возняка, нет медицинского страхования. 🍏</t>
+  </si>
+  <si>
+    <t>Кофе является вторым по объему потребления продуктом в мире после нефти. ☕️</t>
+  </si>
+  <si>
+    <t>В Австралии белые акулы иногда убивают одинаковых белых акул. 🦈</t>
+  </si>
+  <si>
+    <t>Джигсо, главный антагонист фильма «Пила», носит имя от фамилии доктора по производству игрушек. 🔪</t>
+  </si>
+  <si>
+    <t>Черные дыры излучают радио волны. 🌌</t>
+  </si>
+  <si>
+    <t>У медуз нет мозга, сердца и костей. 🎐</t>
+  </si>
+  <si>
+    <t>Люди в Японии могут арендовать семью, чтобы избежать одиночества. 🇯🇵</t>
+  </si>
+  <si>
+    <t>В Австралии длина кангуру может достигать 2 метров. 🦘</t>
+  </si>
+  <si>
+    <t>Во время гипноза человек не может быть заставлен сделать что-то против его воли. 🌀</t>
+  </si>
+  <si>
+    <t>Великобритания не имеет официальной конституции. 🇬🇧</t>
+  </si>
+  <si>
+    <t>От сантиметра до звезды Полярной звезды можно добраться за 431 год. 🌠</t>
+  </si>
+  <si>
+    <t>Киты - самые большие млекопитающие на Земле, их сердце может весить до 600 кг. ❤️</t>
+  </si>
+  <si>
+    <t>Швейцария является единственной страной, где является обязательным военное служение для мужчин. 🇨🇭</t>
+  </si>
+  <si>
+    <t>Вселенная расширяется со скоростью около 70 км в секунду на каждый мегапарсек расстояния. 🌌</t>
+  </si>
+  <si>
+    <t>Слоны - единственные млекопитающие, которые не могут прыгать. 🐘</t>
+  </si>
+  <si>
+    <t>В Австралии больше овец, чем людей. 🇦🇺</t>
+  </si>
+  <si>
+    <t>Вода кипит быстрее в горах из-за низкого атмосферного давления. ⛰️</t>
+  </si>
+  <si>
+    <t>Октопус имеет три сердца. 🐙</t>
+  </si>
+  <si>
+    <t>В среднем крокодилы живут около 50 лет. 🐊</t>
+  </si>
+  <si>
+    <t>Космический корабль может продвигаться без звука. 🚀</t>
+  </si>
+  <si>
+    <t>Львы спят в среднем 20 часов в день. 🦁</t>
+  </si>
+  <si>
+    <t>Авокадо является плодом, не фруктом. 🥑</t>
+  </si>
+  <si>
+    <t>В Исландии почти нет комаров. 🇮🇸</t>
+  </si>
+  <si>
+    <t>Шахматная партия может иметь более возможных ходов, чем атомов в Вселенной. ♟️</t>
+  </si>
+  <si>
+    <t>Бразилия является крупнейшей страной в Южной Америке. 🇧🇷</t>
+  </si>
+  <si>
+    <t>У панд есть шестой палец, который помогает им хватать бамбук. 🐼</t>
+  </si>
+  <si>
+    <t>Гиппопотамы могут бегать быстрее, чем человек. 🦛</t>
+  </si>
+  <si>
+    <t>В одном миллилитре морской воды содержится приблизительно 1 миллиард бактерий. 🌊</t>
+  </si>
+  <si>
+    <t>Москва - самый большой город в Европе по населению. 🇷🇺</t>
+  </si>
+  <si>
+    <t>Слоновая кость состоит из зубов, а не из костей. 🦷</t>
+  </si>
+  <si>
+    <t>В Саудовской Аравии нет рек и озер. 🇸🇦</t>
+  </si>
+  <si>
+    <t>Вес одного облака составляет примерно 500 тонн. ☁️</t>
+  </si>
+  <si>
+    <t>Озеро Байкал содержит около 20% всей пресной воды на поверхности Земли. 🌊</t>
+  </si>
+  <si>
+    <t>Лос-Анджелес - единственный город в мире, где можно встретить все 4 времени года. 🌞🍂❄️🌸</t>
+  </si>
+  <si>
+    <t>Жирафы могут быть выше двух автомобилей. 🦒</t>
+  </si>
+  <si>
+    <t>Пингвины могут проплывать на скорости до 15 миль в час. 🐧</t>
+  </si>
+  <si>
+    <t>Мёд не портится тысячи лет. 🍯</t>
+  </si>
+  <si>
+    <t>Дельфины спят с одним открытым глазом. 🐬</t>
+  </si>
+  <si>
+    <t>Скорпионы светятся в ультрафиолетовом свете. 🦂</t>
+  </si>
+  <si>
+    <t>Все панды в мире являются собственностью Китая. 🐼</t>
+  </si>
+  <si>
+    <t>Язык гиппопотама может вырасти до 60 сантиметров в длину. 🦛</t>
+  </si>
+  <si>
+    <t>В Исландии горячие источники и гейзеры распространены из-за геотермальной активности. 🌋</t>
+  </si>
+  <si>
+    <t>Дельфины используют уникальные свистки для идентификации друг друга. 🐬</t>
+  </si>
+  <si>
+    <t>Один из крупнейших вулканов в Солнечной системе находится на Марсе. 🌋</t>
+  </si>
+  <si>
+    <t>В Китае употребляют костер в качестве алфавита. 🇨🇳</t>
+  </si>
+  <si>
+    <t>Достопримечательности Италии - Пизанская башня. 🇮🇹</t>
+  </si>
+  <si>
+    <t>Камбоджа - страна с самым большим количеством религиозных памятников в Юго-Восточной Азии. 🇰🇭</t>
+  </si>
+  <si>
+    <t>Вес космического аппарата может составить более 7000 тонн. 🛰️</t>
+  </si>
+  <si>
+    <t>В Швейцарии банкоматы принимают латышскую валюту. 🏧</t>
+  </si>
+  <si>
+    <t>Парк развлечений в Дубае - самый высокий на планете. 🎢</t>
+  </si>
+  <si>
+    <t>Венеция построена на десяти миллионах деревянных пилонов. 🇮🇹</t>
+  </si>
+  <si>
+    <t>В Новой Зеландии овец больше, чем человек. 🇳🇿</t>
+  </si>
+  <si>
+    <t>Волны на Лунах могут достигать 15 метров в высоту. 🌊</t>
+  </si>
+  <si>
+    <t>Наука о плато может стать весёлой и интересной. 🏞️</t>
+  </si>
+  <si>
+    <t>Вода омывает 70 миллионов человек. 🌊</t>
+  </si>
+  <si>
+    <t>Планеты и звезды часто сталкиваются. ✨</t>
+  </si>
+  <si>
+    <t>Самый большой континент находится в Канаде. 🌍</t>
+  </si>
+  <si>
+    <t>В кино используют динамит и другие взрывчатые вещества. 🎥</t>
+  </si>
+  <si>
+    <t>Бразилия - самая большая страна в мире по количеству жителей. 🇧🇷</t>
+  </si>
+  <si>
+    <t>В Канаде более 50% населения имеет французский язык. 🇨🇦</t>
+  </si>
+  <si>
+    <t>Самый высокий бассейн в мире находится в Гонконге. 🏊</t>
+  </si>
+  <si>
+    <t>В Канаде есть более четырёх миллионов озёр. 🇨🇦</t>
+  </si>
+  <si>
+    <t>В Австралии есть розовые озёра. 🇦🇺</t>
+  </si>
+  <si>
+    <t>Московский метрополитен - одна из самых глубоких систем в мире. 🚇</t>
+  </si>
+  <si>
+    <t>В Турции можно найти останки неандертальцев. 🇹🇷</t>
+  </si>
+  <si>
+    <t>Самое большое количество слонов находится в Кении. 🐘</t>
+  </si>
+  <si>
+    <t>В Кении есть самая большая популяция львов. 🇰🇪</t>
+  </si>
+  <si>
+    <t>Наиболее распространённым вирусом является коронавирус. 🦠</t>
+  </si>
+  <si>
+    <t>В Австралии самые ядовитые змеи и пауки. 🇦🇺</t>
+  </si>
+  <si>
+    <t>Самая длинная река в мире - Амазонка. 🌊</t>
+  </si>
+  <si>
+    <t>В Китае изобрели бумагу и порох. 🇨🇳</t>
+  </si>
+  <si>
+    <t>В Индии распространены священные коровы. 🇮🇳</t>
+  </si>
+  <si>
+    <t>В США находится крупнейшее количество национальных парков. 🇺🇸</t>
+  </si>
+  <si>
+    <t>Камбоджа - страна с самыми дешёвыми турами. 🇰🇭</t>
+  </si>
+  <si>
+    <t>В Нидерландах более двух миллионов велосипедистов. 🇳🇱</t>
+  </si>
+  <si>
+    <t>Самое большое количество музеев находится в Венеции. 🇮🇹</t>
+  </si>
+  <si>
+    <t>В Великобритании проводят соревнования по длинному усу. 🇬🇧</t>
+  </si>
+  <si>
+    <t>Палеолит - период древних времён.</t>
+  </si>
+  <si>
+    <t>Самый высокий водопад находится в Венесуэле и называется Анхель. 🌊</t>
+  </si>
+  <si>
+    <t>В Японии более половины магазинов продает мобильные телефоны. 🇯🇵</t>
+  </si>
+  <si>
+    <t>Шерлок Холмс - самый известный сыщик в литературе. 🕵️‍♂️</t>
+  </si>
+  <si>
+    <t>Орхидеи - одни из самых красивых цветов на планете. 🌸</t>
+  </si>
+  <si>
+    <t>Крысы могут забираться по трубам. 🐀</t>
+  </si>
+  <si>
+    <t>Попугаи говорят как люди. 🦜</t>
+  </si>
+  <si>
+    <t>В Австралии водят кенгуру. 🇦🇺</t>
+  </si>
+  <si>
+    <t>Бамбук является быстрорастущим растением. 🎍</t>
+  </si>
+  <si>
+    <t>В Индии много храмов. 🇮🇳</t>
+  </si>
+  <si>
+    <t>Средний вес слона - около пяти тонн. 🐘</t>
+  </si>
+  <si>
+    <t>В Бразилии много тропических лесов. 🇧🇷</t>
+  </si>
+  <si>
+    <t>В Германии много машин. 🇩🇪</t>
+  </si>
+  <si>
+    <t>В Китае много людей. 🇨🇳</t>
+  </si>
+  <si>
+    <t>В России много медведей. 🇷🇺</t>
+  </si>
+  <si>
+    <t>В Англии много чаю пьют. 🏴</t>
+  </si>
+  <si>
+    <t>Каждый год в Канаде празднуют День независимости. 🇨🇦</t>
+  </si>
+  <si>
+    <t>В Швейцарии много гор. 🇨🇭</t>
+  </si>
+  <si>
+    <t>В Швеции много озёр. 🇸🇪</t>
+  </si>
+  <si>
+    <t>В Японии много островов. 🇯🇵</t>
+  </si>
+  <si>
+    <t>В Италии много пиццы едят. 🇮🇹</t>
+  </si>
+  <si>
+    <t>В Мексике много тако едят. 🇲🇽</t>
+  </si>
+  <si>
+    <t>В Испании много фламенко. 🇪🇸</t>
+  </si>
+  <si>
+    <t>В Аргентине много танго. 🇦🇷</t>
+  </si>
+  <si>
+    <t>В Южной Корее много кимчи едят. 🇰🇷</t>
+  </si>
+  <si>
+    <t>В Вьетнаме много фо едят. 🇻🇳</t>
+  </si>
+  <si>
+    <t>В Таиланде много риса едят. 🇹🇭</t>
+  </si>
+  <si>
+    <t>В Шри-Ланке много чая пьют. 🇱🇰</t>
+  </si>
+  <si>
+    <t>В Индонезии много бали едят. 🇮🇩</t>
+  </si>
+  <si>
+    <t>В Нигерии много джолофе едят. 🇳🇬</t>
+  </si>
+  <si>
+    <t>В Южной Африке много боботи едят. 🇿🇦</t>
+  </si>
+  <si>
+    <t>В Австралии много кенгуру. 🇦🇺</t>
+  </si>
+  <si>
+    <t>В Новой Зеландии много киви едят. 🇳🇿</t>
+  </si>
+  <si>
+    <t>В Польше много пирога едят. 🇵🇱</t>
+  </si>
+  <si>
+    <t>В Греции много сувлаки едят. 🇬🇷</t>
+  </si>
+  <si>
+    <t>В Турции много баклавы едят. 🇹🇷</t>
+  </si>
+  <si>
+    <t>В Египте много фула едят. 🇪🇬</t>
+  </si>
+  <si>
+    <t>В Индии много чай едят. 🇮🇳</t>
+  </si>
+  <si>
+    <t>В Японии много суши едят. 🇯🇵</t>
+  </si>
+  <si>
+    <t>В Италии много пицца едят. 🇮🇹</t>
+  </si>
+  <si>
+    <t>В Франции много багет едят. 🇫🇷</t>
+  </si>
+  <si>
+    <t>В Испании много паэлья едят. 🇪🇸</t>
+  </si>
+  <si>
+    <t>В Мексике много такос едят. 🇲🇽</t>
+  </si>
+  <si>
+    <t>В Германии много колбасы едят. 🇩🇪</t>
+  </si>
+  <si>
+    <t>В США много гамбургеры едят. 🇺🇸</t>
+  </si>
+  <si>
+    <t>В Исландии больше термальных источников, чем в любой другой части мира. 🇮🇸</t>
+  </si>
+  <si>
+    <t>Медведи высыпаются до 100 дней в году во время зимней спячки. 🐻</t>
+  </si>
+  <si>
+    <t>В Коста-Рике можно найти более 500 тысяч видов насекомых. 🇨🇷</t>
+  </si>
+  <si>
+    <t>Слоны могут помнить людей и других слонов на долгие годы. 🐘</t>
+  </si>
+  <si>
+    <t>В Швейцарии нет своей армии с 1848 года. 🇨🇭</t>
+  </si>
+  <si>
+    <t>Коалы спят до 18 часов в день из-за их высокой потребности в энергии от питания. 🐨</t>
+  </si>
+  <si>
+    <t>В Антарктиде самые суровые условия на Земле, с температурами до -80°C. 🇦🇶</t>
+  </si>
+  <si>
+    <t>Собаки могут ощущать землетрясения за сотни километров от эпицентра. 🐕</t>
+  </si>
+  <si>
+    <t>В Бразилии около 175 миллионов человек обслуживаются мобильными телефонами. 🇧🇷</t>
+  </si>
+  <si>
+    <t>Гренландия - самый большой остров в мире. 🇬🇱</t>
+  </si>
+  <si>
+    <t>На Луне нет атмосферы, что означает отсутствие ветра и звуков. 🌕</t>
+  </si>
+  <si>
+    <t>У бабочек нет рта, чтобы есть. 🦋</t>
+  </si>
+  <si>
+    <t>Пауки могут жить без пищи в течение нескольких месяцев. 🕷️</t>
+  </si>
+  <si>
+    <t>В Кении можно найти более 40 различных этнических групп. 🇰🇪</t>
+  </si>
+  <si>
+    <t>В Австралии можно найти более 60 различных видов кенгуру. 🇦🇺</t>
+  </si>
+  <si>
+    <t>В Нидерландах почти 20% земли находится ниже уровня моря. 🇳🇱</t>
+  </si>
+  <si>
+    <t>Белые медведи могут плавать на расстояние до 100 км в открытом море. 🐻</t>
+  </si>
+  <si>
+    <t>В Боливии находится самое большое зеркало в мире - сольные плоскости Салар де Уюни. 🇧🇴</t>
+  </si>
+  <si>
+    <t>В Австралии более 80% видов растений и животных не встречаются больше нигде на Земле. 🇦🇺</t>
+  </si>
+  <si>
+    <t>Черепахи могут жить до нескольких сотен лет. 🐢</t>
   </si>
 </sst>
 </file>
@@ -399,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -420,6 +1390,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B50"/>
+    <sheetView topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1113,17 +2089,1551 @@
         <v>51</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B008070-D613-4601-A2A1-A85EF9B401B8}">
+  <dimension ref="G7:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G21" sqref="G7:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="59.07421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G7" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G9" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G10" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G11" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G12" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G13" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G14" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G15" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G16" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G17" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G19" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.4">
+      <c r="G20" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="G21" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C190D1D-6382-45AD-AD98-AB9636B95BA8}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242:B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -1541,6 +4051,1566 @@
         <v>102</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
